--- a/data/rings_base_example/Power_VRES.xlsx
+++ b/data/rings_base_example/Power_VRES.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Malacek\Code\LEGO-Pyomo\data\rings_base_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470A17F2-11B6-4C82-9C80-2D38B4AB9CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96048B8F-07B5-403F-B36B-A273757CB484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="2730" windowWidth="28800" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -351,10 +364,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -446,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -491,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,7 +820,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1181,13 +1198,14 @@
         <v>75</v>
       </c>
       <c r="F8" s="13">
-        <v>500</v>
-      </c>
-      <c r="G8" s="14">
-        <v>5</v>
+        <f>ROUND(0.6/G8,0)</f>
+        <v>1481</v>
+      </c>
+      <c r="G8" s="19">
+        <v>4.0499999999999998E-4</v>
       </c>
       <c r="H8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="13">
         <v>1000</v>
